--- a/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb149/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E92735-EA8E-FC40-9357-75CB2F3D238F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90109ADB-5ED3-FB4D-90CA-F49861EFA7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23240" yWindow="1000" windowWidth="16920" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,13 +500,12 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -1279,10 +1278,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
         <v>1802317</v>
